--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/117.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/117.xlsx
@@ -479,13 +479,13 @@
         <v>6.250432309009073</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.49409348149808</v>
+        <v>-21.45473208721255</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02683589339643164</v>
+        <v>-0.02208866772865723</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.821670346289732</v>
+        <v>-8.861329969994145</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>6.228951092545214</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.64273884627977</v>
+        <v>-21.6020965321951</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.151148671001478</v>
+        <v>-0.1490463980487046</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.308896639067092</v>
+        <v>-8.357160914857277</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>6.172912060148491</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.88748253003753</v>
+        <v>-21.84306590265161</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2934089928149692</v>
+        <v>-0.2943916831952191</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.195036558143508</v>
+        <v>-8.259194995258033</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>6.083552738358288</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.9755433217244</v>
+        <v>-21.94455190719503</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3121534451427211</v>
+        <v>-0.3204109777409405</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.737112618960787</v>
+        <v>-7.795849147459903</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>5.971581000736223</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.95411480462671</v>
+        <v>-21.93109247129041</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4512848025613867</v>
+        <v>-0.4540617584617944</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.999948163567352</v>
+        <v>-7.076705571377916</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>5.850698975263891</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.20519953029086</v>
+        <v>-22.18452880925755</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5464199871846847</v>
+        <v>-0.5574202526352433</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.41719321205169</v>
+        <v>-6.501372132286232</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>5.740581692149333</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.58669851412997</v>
+        <v>-22.5682229571799</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7205859678116627</v>
+        <v>-0.7334782789197175</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.009806936852269</v>
+        <v>-6.088891511931485</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>5.660658403161809</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.83374492012205</v>
+        <v>-22.82840123561651</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8456663194948149</v>
+        <v>-0.8529264946921835</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.733548714830373</v>
+        <v>-5.807279827390317</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>5.633264698788996</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31215379807714</v>
+        <v>-23.31198757184367</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9365822911919652</v>
+        <v>-0.9427571068648788</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.457182934657404</v>
+        <v>-5.509250857790049</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>5.678932811691385</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75941481328313</v>
+        <v>-23.75287332209519</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.177972116239024</v>
+        <v>-1.185862973322225</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.132435542529445</v>
+        <v>-5.176539273475885</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5.809043547526861</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.2367627767481</v>
+        <v>-24.23228444645801</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.116781306292716</v>
+        <v>-1.125698854817969</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.964219483259503</v>
+        <v>-5.003062642817143</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>6.027351146785849</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85240118845063</v>
+        <v>-24.84512634623266</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.045592477303568</v>
+        <v>-1.043817767810878</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.862870370908356</v>
+        <v>-4.901283297861707</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>6.329358241333681</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43609482928474</v>
+        <v>-25.44403457643661</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9444291472133637</v>
+        <v>-0.953268471628746</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.742801251263792</v>
+        <v>-4.779366133621449</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.696191704616801</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.07893567519478</v>
+        <v>-26.08401535332951</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9140684145698219</v>
+        <v>-0.9119954756582499</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.718111766585872</v>
+        <v>-4.768639652555438</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>7.105276799436621</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.83647506670609</v>
+        <v>-26.84830157431715</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8343971586665758</v>
+        <v>-0.8287748007696236</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.628701609003731</v>
+        <v>-4.687873259114003</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>7.532658334380032</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.6400444578694</v>
+        <v>-27.63805952108143</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7351063182064002</v>
+        <v>-0.7234949268974772</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.655830708108242</v>
+        <v>-4.7068621617851</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>7.949878480106308</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.47880736496419</v>
+        <v>-28.48787402819888</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5864951764727865</v>
+        <v>-0.5768540549312302</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.859800074595934</v>
+        <v>-4.925650108086411</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>8.33552149961144</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17285077979144</v>
+        <v>-29.17382369215795</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3083253527659267</v>
+        <v>-0.3009331743831513</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.090160300151232</v>
+        <v>-5.159906872114641</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>8.673321740315464</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.59598943511606</v>
+        <v>-29.59521697203109</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1271485362917925</v>
+        <v>-0.1129508603502715</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.404459884604593</v>
+        <v>-5.483485791601407</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>8.94592872749287</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.20374921225256</v>
+        <v>-30.19501744598825</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3186262208266455</v>
+        <v>0.3225374263201775</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.681490569711462</v>
+        <v>-5.766891741662732</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>9.144691299764897</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.73610339197719</v>
+        <v>-30.73099437980127</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3364368728428166</v>
+        <v>0.3408369790230401</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.957171888923062</v>
+        <v>-6.03852007418166</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>9.266919059296647</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.09589029632033</v>
+        <v>-31.0828464259994</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6145431394604066</v>
+        <v>0.6239691446998186</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.260715658269211</v>
+        <v>-6.340240243966449</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>9.308551597422646</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.3040079851346</v>
+        <v>-31.28045763905667</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8251371102527679</v>
+        <v>0.8289994256776307</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.478980480835761</v>
+        <v>-6.561013127055728</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>9.271985627595569</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.59360830689631</v>
+        <v>-31.57642833676597</v>
       </c>
       <c r="F25" t="n">
-        <v>1.046125109644191</v>
+        <v>1.049948313014118</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.507928290494765</v>
+        <v>-6.587159535779989</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>9.165168335493142</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49175318233443</v>
+        <v>-31.48649505544907</v>
       </c>
       <c r="F26" t="n">
-        <v>1.083266894812143</v>
+        <v>1.085598951087662</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.631238821692094</v>
+        <v>-6.723846389765197</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>8.992653522050864</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.57743058317368</v>
+        <v>-31.57430895228916</v>
       </c>
       <c r="F27" t="n">
-        <v>1.333021810608493</v>
+        <v>1.33591121366684</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.917187055324216</v>
+        <v>-6.99809522996479</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>8.761670109798798</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40501242250163</v>
+        <v>-31.39830959408709</v>
       </c>
       <c r="F28" t="n">
-        <v>1.477408850409093</v>
+        <v>1.480787154154131</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.053409453657067</v>
+        <v>-7.139040408931081</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>8.484758181045324</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.21354424657264</v>
+        <v>-31.20204041341479</v>
       </c>
       <c r="F29" t="n">
-        <v>1.505271300543641</v>
+        <v>1.508586047199409</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.331613500411994</v>
+        <v>-7.421546781728895</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>8.169104328921206</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.07185593856258</v>
+        <v>-31.07247195342781</v>
       </c>
       <c r="F30" t="n">
-        <v>1.613176571103321</v>
+        <v>1.615146840870687</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.356879887900211</v>
+        <v>-7.443811319000826</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>7.822272765310929</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.80453726559684</v>
+        <v>-30.80627286303459</v>
       </c>
       <c r="F31" t="n">
-        <v>1.557769456280574</v>
+        <v>1.558209466898596</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.349624601709709</v>
+        <v>-7.431153680222383</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>7.457657713927109</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.40568230738018</v>
+        <v>-30.39798945507509</v>
       </c>
       <c r="F32" t="n">
-        <v>1.51024830953416</v>
+        <v>1.511035439639734</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.373277616931844</v>
+        <v>-7.44160148789698</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>7.083087461459465</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.90088501486091</v>
+        <v>-29.89961631757895</v>
       </c>
       <c r="F33" t="n">
-        <v>1.483881895500888</v>
+        <v>1.48292853916184</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.634580366947847</v>
+        <v>-7.702811346782513</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.704354842426684</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.29791646445399</v>
+        <v>-29.29939050002437</v>
       </c>
       <c r="F34" t="n">
-        <v>1.477315959278621</v>
+        <v>1.472681180768786</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.61755684503725</v>
+        <v>-7.683695329932875</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.332121605841709</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.85034010830509</v>
+        <v>-28.84672468772701</v>
       </c>
       <c r="F35" t="n">
-        <v>1.502235227279287</v>
+        <v>1.49960005257802</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.634120800302357</v>
+        <v>-7.694695595383434</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.971317277164759</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.22577437006358</v>
+        <v>-28.2209758098237</v>
       </c>
       <c r="F36" t="n">
-        <v>1.407070708614787</v>
+        <v>1.410224118043947</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.52575107409032</v>
+        <v>-7.565963155570696</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.623542294361221</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.56326749403136</v>
+        <v>-27.56235569425068</v>
       </c>
       <c r="F37" t="n">
-        <v>1.519068077922075</v>
+        <v>1.510790989296388</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.452841314684018</v>
+        <v>-7.48806660916014</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.294186487380851</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.03208178694792</v>
+        <v>-27.01685741956435</v>
       </c>
       <c r="F38" t="n">
-        <v>1.384346604697367</v>
+        <v>1.375306831000441</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.423737056805273</v>
+        <v>-7.455848053907171</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>4.984651613183956</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.28689936029275</v>
+        <v>-26.26353479647576</v>
       </c>
       <c r="F39" t="n">
-        <v>1.436316747692673</v>
+        <v>1.430537941575979</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.398133327843239</v>
+        <v>-7.417611131201029</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>4.691619734834049</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.62402825324895</v>
+        <v>-25.60768430329285</v>
       </c>
       <c r="F40" t="n">
-        <v>1.46719082605724</v>
+        <v>1.451345554801569</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.10408400983264</v>
+        <v>-7.113661574284926</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.414472592721634</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.07725639227378</v>
+        <v>-25.05232734625938</v>
       </c>
       <c r="F41" t="n">
-        <v>1.494456817354025</v>
+        <v>1.485690828041647</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.1315308943835</v>
+        <v>-7.135075424362014</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>4.150450940269213</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.36685436046984</v>
+        <v>-24.35016818003306</v>
       </c>
       <c r="F42" t="n">
-        <v>1.504801955884417</v>
+        <v>1.498289798737686</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.860899919265424</v>
+        <v>-6.874114904826695</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.89182405772922</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.66292537375769</v>
+        <v>-23.64982283535436</v>
       </c>
       <c r="F43" t="n">
-        <v>1.456219894647883</v>
+        <v>1.44814325530374</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.85543889859508</v>
+        <v>-6.853175288415698</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.633339773929408</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.97584390470893</v>
+        <v>-22.96506853357425</v>
       </c>
       <c r="F44" t="n">
-        <v>1.570031085502796</v>
+        <v>1.561934890131185</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.760807281679074</v>
+        <v>-6.775669862554495</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.371318570546426</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.16105179828262</v>
+        <v>-22.1402050730021</v>
       </c>
       <c r="F45" t="n">
-        <v>1.62026074205348</v>
+        <v>1.613460133501602</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.647455657469651</v>
+        <v>-6.647167206064503</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>3.097703160176423</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.65169061785309</v>
+        <v>-21.62472285597518</v>
       </c>
       <c r="F46" t="n">
-        <v>1.62373193692899</v>
+        <v>1.613846365044088</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.513174194862965</v>
+        <v>-6.517662303166793</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>2.80788581659458</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.98821816296466</v>
+        <v>-20.96312289071679</v>
       </c>
       <c r="F47" t="n">
-        <v>1.695883900270921</v>
+        <v>1.686262334756832</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.485385079831421</v>
+        <v>-6.495275540723189</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>2.502100896646582</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.34900496014987</v>
+        <v>-20.32522971975606</v>
       </c>
       <c r="F48" t="n">
-        <v>1.732649231910121</v>
+        <v>1.72323789369131</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.456222153870272</v>
+        <v>-6.481351649166215</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>2.177121232114044</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.6067314925805</v>
+        <v>-19.57841436480733</v>
       </c>
       <c r="F49" t="n">
-        <v>1.883587540912387</v>
+        <v>1.8772905000678</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.197495910473133</v>
+        <v>-6.231332726999052</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.833322130169684</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.22117952204872</v>
+        <v>-19.19376686054593</v>
       </c>
       <c r="F50" t="n">
-        <v>1.900503504671912</v>
+        <v>1.89160062316726</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.187747230780505</v>
+        <v>-6.226370385029133</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.477146598459242</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.63345245054941</v>
+        <v>-18.60762871627837</v>
       </c>
       <c r="F51" t="n">
-        <v>1.863625725874773</v>
+        <v>1.850831194904056</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.225857039308107</v>
+        <v>-6.265858893493205</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.112292338904373</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.10721441841529</v>
+        <v>-18.09108069575447</v>
       </c>
       <c r="F52" t="n">
-        <v>1.885650701810225</v>
+        <v>1.86947786709447</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.248180244662441</v>
+        <v>-6.285639815276743</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.7452092781691353</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.71733078779942</v>
+        <v>-17.69953969181072</v>
       </c>
       <c r="F53" t="n">
-        <v>1.980766330406055</v>
+        <v>1.96334190993237</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.149788981465777</v>
+        <v>-6.198786608285999</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3886483421473488</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.09876874999047</v>
+        <v>-17.08202390147129</v>
       </c>
       <c r="F54" t="n">
-        <v>2.0394099677747</v>
+        <v>2.022190885589426</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.135747753743997</v>
+        <v>-6.18390447138311</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.05179666068494613</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.84815336898555</v>
+        <v>-16.84004250659333</v>
       </c>
       <c r="F55" t="n">
-        <v>1.992407055756179</v>
+        <v>1.988138952761363</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.36782890971645</v>
+        <v>-6.415550505744407</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2555147469771087</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.3037868993889</v>
+        <v>-16.28178636848778</v>
       </c>
       <c r="F56" t="n">
-        <v>2.02240600189157</v>
+        <v>2.009005234069356</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.236060396639359</v>
+        <v>-6.291477289475839</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5203482774919058</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.20566453156992</v>
+        <v>-16.18662184982328</v>
       </c>
       <c r="F57" t="n">
-        <v>2.064984362695532</v>
+        <v>2.052805846590047</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.391007691272494</v>
+        <v>-6.455004791160411</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.7351383640881824</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.9480578707453</v>
+        <v>-15.94056791222519</v>
       </c>
       <c r="F58" t="n">
-        <v>1.93459454955491</v>
+        <v>1.923706731262291</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.555796556728729</v>
+        <v>-6.609971641821014</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.8953418826229091</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.67541262479806</v>
+        <v>-15.67420015109506</v>
       </c>
       <c r="F59" t="n">
-        <v>1.998312976051413</v>
+        <v>1.988637631461788</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.352237866817858</v>
+        <v>-6.400541254662978</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.9968676397836811</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.41407076272712</v>
+        <v>-15.42011846422149</v>
       </c>
       <c r="F60" t="n">
-        <v>2.067448422156457</v>
+        <v>2.059523342025188</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.386441358858796</v>
+        <v>-6.443153838515009</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.041314133086431</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.26362135441154</v>
+        <v>-15.26235021262615</v>
       </c>
       <c r="F61" t="n">
-        <v>2.003285096035065</v>
+        <v>1.997310729643695</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.233801675466844</v>
+        <v>-6.293824012771958</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.033614872610342</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.20849780198708</v>
+        <v>-15.20872269630296</v>
       </c>
       <c r="F62" t="n">
-        <v>2.026180315192828</v>
+        <v>2.010970614829855</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.31871883573829</v>
+        <v>-6.381415459799607</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.979187400067093</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.11287371667709</v>
+        <v>-15.1282105312186</v>
       </c>
       <c r="F63" t="n">
-        <v>1.990891463627436</v>
+        <v>1.980306763760565</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.382295481035651</v>
+        <v>-6.441359572994851</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8864061434156546</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.16414962069729</v>
+        <v>-15.16890173537193</v>
       </c>
       <c r="F64" t="n">
-        <v>1.841370966616576</v>
+        <v>1.828542212597791</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.369310278797125</v>
+        <v>-6.434534519408638</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7636432786999033</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.16699502269384</v>
+        <v>-15.18620881968081</v>
       </c>
       <c r="F65" t="n">
-        <v>1.845790628824267</v>
+        <v>1.831030717093051</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.464264570166348</v>
+        <v>-6.533610243566669</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6188895565026787</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.16463852138398</v>
+        <v>-15.18157404117098</v>
       </c>
       <c r="F66" t="n">
-        <v>1.899647928470202</v>
+        <v>1.890305036347528</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.382745269667407</v>
+        <v>-6.463286768792964</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4598897092250353</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.02666096958591</v>
+        <v>-15.04758591897631</v>
       </c>
       <c r="F67" t="n">
-        <v>1.710277136487119</v>
+        <v>1.705163235304326</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.17905457657113</v>
+        <v>-6.254487063520761</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2922368256259804</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.13334887743573</v>
+        <v>-15.15435205093599</v>
       </c>
       <c r="F68" t="n">
-        <v>1.677388787293382</v>
+        <v>1.670847296105449</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.30126997023027</v>
+        <v>-6.381571908019348</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.120952585095888</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.03590119256438</v>
+        <v>-15.05958843083458</v>
       </c>
       <c r="F69" t="n">
-        <v>1.668006783115772</v>
+        <v>1.654884688684972</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.076072535926434</v>
+        <v>-6.180350163390862</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.05028456098320713</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.07022690977699</v>
+        <v>-15.0993800577244</v>
       </c>
       <c r="F70" t="n">
-        <v>1.547013641173361</v>
+        <v>1.544481135616299</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.052292406525759</v>
+        <v>-6.152458379215113</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2209389131331066</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.08359345455113</v>
+        <v>-15.1117639121183</v>
       </c>
       <c r="F71" t="n">
-        <v>1.448993942498583</v>
+        <v>1.441596875108941</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.023393486935425</v>
+        <v>-6.140328753178297</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.3888665636491251</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.19447613029277</v>
+        <v>-15.22400573176893</v>
       </c>
       <c r="F72" t="n">
-        <v>1.36681462607261</v>
+        <v>1.359486004779104</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.879461124773449</v>
+        <v>-5.997212855163095</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.5530037460685506</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.31493148147982</v>
+        <v>-15.33559731350627</v>
       </c>
       <c r="F73" t="n">
-        <v>1.288746964421712</v>
+        <v>1.285089987285259</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.029441188429799</v>
+        <v>-6.138030919950847</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.7143732779258146</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.45497219417573</v>
+        <v>-15.46876897155416</v>
       </c>
       <c r="F74" t="n">
-        <v>1.173297956266382</v>
+        <v>1.162815925543716</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.931294375576481</v>
+        <v>-6.039424540452039</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.8715689002931837</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.68319592373019</v>
+        <v>-15.70446799260813</v>
       </c>
       <c r="F75" t="n">
-        <v>1.093005796491038</v>
+        <v>1.096530770442084</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.962373792229459</v>
+        <v>-6.072224887522172</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.022580950774696</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.70465377486907</v>
+        <v>-15.72652719159165</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9095164797688531</v>
+        <v>0.909633815933659</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.068954141928206</v>
+        <v>-6.183156453332471</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>1.166884302473806</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.77862933777237</v>
+        <v>-15.79620531745892</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7498170704610763</v>
+        <v>0.7483503684010018</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.984833889776067</v>
+        <v>-6.10565102747127</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.301704752095931</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.93311217675314</v>
+        <v>-15.95239441983626</v>
       </c>
       <c r="F78" t="n">
-        <v>0.764836099556239</v>
+        <v>0.7631836152352217</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.961699109281826</v>
+        <v>-6.078116140796804</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.42372333109946</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.04159435012312</v>
+        <v>-16.0648269107547</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4856151393729925</v>
+        <v>0.4862898223206267</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.979759100648209</v>
+        <v>-6.091399572454212</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.530934707891494</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.54119707284629</v>
+        <v>-16.55706190012943</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4719796992211667</v>
+        <v>0.4742286423799476</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.915986895076171</v>
+        <v>-6.023359263887357</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.619995882162497</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.05326187407323</v>
+        <v>-17.06175896800793</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3001848869246423</v>
+        <v>0.2995639830525441</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.987625512697075</v>
+        <v>-6.102742068385455</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.687179932075759</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.47715343645536</v>
+        <v>-17.48792391858317</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01395824930897767</v>
+        <v>-0.01629519459136301</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.024009501800657</v>
+        <v>-6.146943579469233</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.729933981805155</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.98551237047717</v>
+        <v>-17.99634640969425</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.01989350364541241</v>
+        <v>-0.01912104056043985</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.048791877609048</v>
+        <v>-6.169838798626995</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.745648746907041</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.77394295187708</v>
+        <v>-18.77758037298606</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1100956803399932</v>
+        <v>-0.1131953106936173</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.044337992353289</v>
+        <v>-6.164544004190127</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.73194265631376</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.45369579963233</v>
+        <v>-19.47046020417898</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2782090704657306</v>
+        <v>-0.2762534677189646</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.133914376168905</v>
+        <v>-6.251284764022932</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.686413835673733</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.12997745251208</v>
+        <v>-20.13276907543309</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.403788100849308</v>
+        <v>-0.4121874146466679</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.364318602786005</v>
+        <v>-6.483923266778213</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.607461038989539</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.87474431358356</v>
+        <v>-20.88556368578005</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5012944538030597</v>
+        <v>-0.5067310294390691</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.698790229572258</v>
+        <v>-6.810455146412595</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.494769814061708</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.70427677571362</v>
+        <v>-21.71716908682168</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6194226377214587</v>
+        <v>-0.6260032409643262</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.948946043931695</v>
+        <v>-7.061461647966875</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.34670305563278</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.6994292344673</v>
+        <v>-22.71361224338822</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8465805637789279</v>
+        <v>-0.8478174825162574</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.993836904983707</v>
+        <v>-7.114903382029123</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.163437102574319</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.7812588959645</v>
+        <v>-23.7970112760897</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.114239022721921</v>
+        <v>-1.112430090181162</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.383422306180693</v>
+        <v>-7.496573481108572</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.9479852453064194</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.01502911287169</v>
+        <v>-25.03269309468185</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.077732808446667</v>
+        <v>-1.06558851538925</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.740564257808829</v>
+        <v>-7.854355892636275</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.7013133996952039</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.26188231215474</v>
+        <v>-26.29359729970042</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.304558282037186</v>
+        <v>-1.29466293213855</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.057694577238134</v>
+        <v>-8.154721807518929</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.4271613167272952</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.54784267736625</v>
+        <v>-27.57560979186689</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.567273955037727</v>
+        <v>-1.557759947674711</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.38566382489139</v>
+        <v>-8.475763332441765</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1335803696800901</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.03955689657187</v>
+        <v>-29.07388750279135</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.845781120218404</v>
+        <v>-1.826968221794516</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.718605192528297</v>
+        <v>-8.805605069725049</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.174464500112739</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.64680323704956</v>
+        <v>-30.68976294038914</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.118001022568229</v>
+        <v>-2.098772558560652</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.035593730758462</v>
+        <v>-9.114766307961283</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4901682955694407</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.47541158594399</v>
+        <v>-32.52649926319982</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.160334933028845</v>
+        <v>-2.130492435113196</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.401051883067222</v>
+        <v>-9.479114655711253</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.8019829628038054</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.18599930907109</v>
+        <v>-34.24743945836761</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.521554316383989</v>
+        <v>-2.489511765378229</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.810119976628862</v>
+        <v>-9.868978730299652</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.104471544018489</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.17315570615614</v>
+        <v>-36.2394506392715</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.91152594912346</v>
+        <v>-2.881018546273911</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.27346093542013</v>
+        <v>-10.3371989179441</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.388498115964516</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.23434877873031</v>
+        <v>-38.29746341287876</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.178309275837275</v>
+        <v>-3.149718363679556</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.63895331077695</v>
+        <v>-10.69503510854734</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.646762078955364</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.43765550291197</v>
+        <v>-40.49626002822568</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.543518088795822</v>
+        <v>-3.512086663648425</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.79273702177576</v>
+        <v>-10.86290404832973</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.869174930871199</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.34463707638648</v>
+        <v>-42.40605278064867</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.994440970145121</v>
+        <v>-3.962349529070691</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.07565896015726</v>
+        <v>-11.1407609755971</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.057322520602339</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.56790317110232</v>
+        <v>-44.64420101226739</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.220479313630067</v>
+        <v>-4.189864352629446</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.21743038128406</v>
+        <v>-11.27536511265701</v>
       </c>
     </row>
   </sheetData>
